--- a/Corte de Apelaciones de Arica/1-2013302#3#1-C-ingresos-2017-9.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013302#3#1-C-ingresos-2017-9.xlsx
@@ -91,10 +91,10 @@
     <t>Expropiar, Gestión De Pago Para</t>
   </si>
   <si>
+    <t>Contrato, Resolución De</t>
+  </si>
+  <si>
     <t>Liquidación Voluntaria Empresa Deudora</t>
-  </si>
-  <si>
-    <t>Contrato, Resolución De</t>
   </si>
   <si>
     <t>Cheque, Notificación Protesto</t>
